--- a/Upload Image Test Scenario (Wallethub).xlsx
+++ b/Upload Image Test Scenario (Wallethub).xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="234">
   <si>
     <t>Project name:</t>
   </si>
@@ -180,105 +180,18 @@
     <t>WALLHUB_TS117</t>
   </si>
   <si>
-    <t>Verify If user can login Successfully</t>
-  </si>
-  <si>
     <t>Test Scenario ID</t>
   </si>
   <si>
-    <t>WH_TC101</t>
-  </si>
-  <si>
-    <t>Homepage should display after successful login</t>
-  </si>
-  <si>
-    <t>Login should be successful</t>
-  </si>
-  <si>
-    <t>Login was successful</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t xml:space="preserve">email is associated with a business account that does not have access to free credit scores and reports. User should register with a different email address. </t>
-  </si>
-  <si>
-    <t>WH_TC102</t>
-  </si>
-  <si>
-    <t>1. Enter a Valid Email address                                  2. Enter an invalid password                               3. Click on login</t>
-  </si>
-  <si>
-    <t>Email: test_inscomp@evolutionfinance.com, Password: Abcd321*, URL: https://wallethub.com/home/settings</t>
-  </si>
-  <si>
-    <t>Email: test_inscomp@evolutionfinance.com, Password: Abcd321, URL: https://wallethub.com/home/settings</t>
-  </si>
-  <si>
-    <t>URL, Valid Email, Invalid password</t>
-  </si>
-  <si>
     <t>Test Data, URL, Valid Account on the website</t>
   </si>
   <si>
-    <t>An Error message should be displayed in red after clicking login</t>
-  </si>
-  <si>
-    <t>No comments</t>
-  </si>
-  <si>
-    <t>WH_TC103</t>
-  </si>
-  <si>
-    <t>Login with an Invalid Email and valid Password</t>
-  </si>
-  <si>
-    <t>Login with a Valid Email and Invalid Password</t>
-  </si>
-  <si>
-    <t>Login with a Valid Email and valid Password</t>
-  </si>
-  <si>
-    <t>URL, invalid email, valid password</t>
-  </si>
-  <si>
-    <t>Email: test_insconp@evolutionfinance.com        pass: Abcd321*                URL: https://wallethub.com/home/settings</t>
-  </si>
-  <si>
     <t>No Comment</t>
   </si>
   <si>
-    <t>WH_TC104</t>
-  </si>
-  <si>
-    <t>Login with an invalid email and invalid password</t>
-  </si>
-  <si>
-    <t>URL, invalid email, invalid password</t>
-  </si>
-  <si>
-    <t>Email: test_insconp@evolutionfinance.com        pass: Abcd321                URL: https://wallethub.com/home/settings</t>
-  </si>
-  <si>
-    <t>Login should not be successful</t>
-  </si>
-  <si>
-    <t>Error Message was displayed "Invalid Password" and Login was not successful</t>
-  </si>
-  <si>
-    <t>Error Message should display "Invalid email or Password"</t>
-  </si>
-  <si>
-    <t>Error message should display in red</t>
-  </si>
-  <si>
-    <t>Error Message was displayed "Invalid email or Password" and Login not successful</t>
-  </si>
-  <si>
-    <t>Login not successful as expected.</t>
-  </si>
-  <si>
     <t>WH_TC105</t>
   </si>
   <si>
@@ -321,12 +234,6 @@
     <t>Verify if the public info displays the details of user and Upload Image Option</t>
   </si>
   <si>
-    <t>Click on Public info to displays User details and Upload Image</t>
-  </si>
-  <si>
-    <t>Click on Public info Option to verify it can be clickable and responsive</t>
-  </si>
-  <si>
     <t>Public Info supposed to be clickable and responsive</t>
   </si>
   <si>
@@ -342,9 +249,6 @@
     <t>WH_TC108</t>
   </si>
   <si>
-    <t>Click on Upload image to verify its responsive</t>
-  </si>
-  <si>
     <t>Should display Upload Image option in public info</t>
   </si>
   <si>
@@ -366,9 +270,6 @@
     <t>WH_TC109</t>
   </si>
   <si>
-    <t>Click on Upload image to locate file in storage</t>
-  </si>
-  <si>
     <t>File storage should have image files stored</t>
   </si>
   <si>
@@ -390,24 +291,12 @@
     <t>WH_TC110</t>
   </si>
   <si>
-    <t>Select Image</t>
-  </si>
-  <si>
-    <t>1. Enter a Valid Email address                                  2. Enter a valid password         3. Click on login</t>
-  </si>
-  <si>
-    <t>1. Enter an invalid email           2. Enter an invalid password                               3. Click login</t>
-  </si>
-  <si>
     <t>1. Login                                                                                     2. Click on Account name on Homepage                                   3. Click on settings                      4. Click on Public Info                5. Click on Upload image</t>
   </si>
   <si>
     <t>1. Login                                                   2. Navigate to Account name                                      3. Click on Settings                     4. Click on Public Info                       5. Verify the Company Name and upload Image are visible to user.</t>
   </si>
   <si>
-    <t>1. Enter an invalid email                 2. Enter a valid password                        3. Click login</t>
-  </si>
-  <si>
     <t>1. Login                                         2. Click Bernard                           3. Click on settings                      4. Click on Public info</t>
   </si>
   <si>
@@ -444,9 +333,6 @@
     <t>Select  Image with size 452kb and Dimension 1360 x 768 PNG file</t>
   </si>
   <si>
-    <t>Select Image with size 25.0kb and 640 x 641 Dimension JPG file</t>
-  </si>
-  <si>
     <t>Image1781_k.PNG File Size: 452kb  Dimensions: 1360 x 768</t>
   </si>
   <si>
@@ -540,9 +426,6 @@
     <t>Verify if user can Upload Multiple images</t>
   </si>
   <si>
-    <t>Select Different Images for Upload</t>
-  </si>
-  <si>
     <t>1. Login                                             2. Click on Account name on homepage                                               3. click on settings                            4. Click on public info                5. click on upload image            6. Locate your image storage location of your choice.                                           7. Select 3 Images of your choice</t>
   </si>
   <si>
@@ -573,12 +456,6 @@
     <t>WH_TC120</t>
   </si>
   <si>
-    <t xml:space="preserve">Check setting to confirm there is a public info visible </t>
-  </si>
-  <si>
-    <t>Cancel Image while processing upload</t>
-  </si>
-  <si>
     <t>1. Login                                             2. Click on Account name on homepage                                               3. click on settings                            4. Click on public info                5. click on upload image            6. Locate your image storage location of your choice.                                           7. Select Image of your choice with size 71.3Kb and Dimension 857 x 604 JPG file                                      8. Click Open                               9. Resize image to fit the sphere                                                10. Click Save</t>
   </si>
   <si>
@@ -651,9 +528,6 @@
     <t>WH_TC122</t>
   </si>
   <si>
-    <t>Checking if user can upload Adobe pdf and other file format</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login                                             2. Click on Account name on homepage                                               3. click on settings                            4. Click on public info                5. Click on upload image           6. specify the file location for selection.                                      7. Select the Adobe file or any other file format except image files.                                              8. Click Open         </t>
   </si>
   <si>
@@ -678,9 +552,6 @@
     <t>WH_TC123</t>
   </si>
   <si>
-    <t>Check if image can be rotated after processing</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login                                             2. Click on Account name on homepage                                               3. click on settings                            4. Click on public info                5. Click on upload image           6. specify the file location for selection.                                      7. Select the image to upload.                                              8. Click Open                               9. Verify if image can rotate      </t>
   </si>
   <si>
@@ -705,9 +576,6 @@
     <t>WH_TC124</t>
   </si>
   <si>
-    <t>Verify the error message displayed when wrong image file format is uploaded</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login                                             2. Click on Account name on homepage                                               3. click on settings                            4. Click on public info                5. Click on upload image           6. specify the file location for selection.                                      7. Select the wrong image file format to upload.                                             8. Click Open                                     </t>
   </si>
   <si>
@@ -735,9 +603,6 @@
     <t>WH_TC125</t>
   </si>
   <si>
-    <t>Try if Image can be downloaded from profile image link</t>
-  </si>
-  <si>
     <t>User Account must be logged in. Profile Link must be opened</t>
   </si>
   <si>
@@ -762,9 +627,6 @@
     <t>WH_TC126</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if user can view profile image </t>
-  </si>
-  <si>
     <t>1. Login                                             2. Click on Account name on homepage                                               3. click on Profile                            4. Click on profile picture to view</t>
   </si>
   <si>
@@ -786,9 +648,6 @@
     <t>WH_TC127</t>
   </si>
   <si>
-    <t xml:space="preserve">Check if image uploaded is visible on profile </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login                                             2. Click on Account name on homepage                                               3. click on Profile                            </t>
   </si>
   <si>
@@ -807,18 +666,12 @@
     <t>User must be Logged in to a valid account.    Must View settings</t>
   </si>
   <si>
-    <t>Verify if size and format specification is visible in the Upload Image functionality</t>
-  </si>
-  <si>
     <t>Verify if Image can be deleted from Profile</t>
   </si>
   <si>
     <t>WH_TC128</t>
   </si>
   <si>
-    <t>Check if image can be deleted permanently from profile</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login                                             2. Click on Account name on homepage                                               3. click on Profile                        4. Find delete image or profile picture button                           </t>
   </si>
   <si>
@@ -835,6 +688,45 @@
   </si>
   <si>
     <t>Upload Image Scenario</t>
+  </si>
+  <si>
+    <t>Verify the Upload Image Functionality</t>
+  </si>
+  <si>
+    <t>Verify the Image can be resized and uploaded (size 25.0kb and 640 x 641 Dimension) JPG file</t>
+  </si>
+  <si>
+    <t>Verify the Image Uploaded can be saved. Select Image with size 25.0kb and 640 x 641 Dimension JPG file</t>
+  </si>
+  <si>
+    <t>Verify the Image Uploaded can be saved. Select  Image with size 452kb and Dimension 1360 x 768 PNG file</t>
+  </si>
+  <si>
+    <t>Verify the Image Uploaded can be saved. Select  Image with size 71.3kb and Dimension 857 x 604 JPG file</t>
+  </si>
+  <si>
+    <t>Verify the Image Uploaded can be saved. Select  Image with size 352kb and Dimension 1056 x 1308 JPEG file</t>
+  </si>
+  <si>
+    <t>Test Cases</t>
+  </si>
+  <si>
+    <t>"                             "</t>
+  </si>
+  <si>
+    <t>WALLHUB_TS120</t>
+  </si>
+  <si>
+    <t>WALLHUB_TS121</t>
+  </si>
+  <si>
+    <t>WALLHUB_TS122</t>
+  </si>
+  <si>
+    <t>WALLHUB_TS123</t>
+  </si>
+  <si>
+    <t>WALLHUB_TS124</t>
   </si>
 </sst>
 </file>
@@ -874,7 +766,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +784,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -916,12 +814,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -936,6 +862,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -1217,19 +1146,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="106.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="108.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
@@ -1237,15 +1167,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1253,7 +1183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1269,164 +1199,213 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
       <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" t="s">
-        <v>261</v>
+        <v>228</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1437,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="A29" sqref="A29:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,1014 +1524,916 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>51</v>
+      <c r="B8" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C9" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="J9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
         <v>62</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
+      <c r="H11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>78</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="I12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="K12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="203" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="H18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="203" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="203" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="145" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="203" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="G23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" t="s">
         <v>158</v>
       </c>
-      <c r="C22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="H24" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="C24" t="s">
-        <v>165</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="217.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="C25" t="s">
         <v>166</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="145" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="H27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="I28" s="7" t="s">
+      <c r="I29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" t="s">
         <v>206</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="174" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="F30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="K30" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" t="s">
         <v>214</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="F31" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G31" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="I31" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" t="s">
-        <v>225</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C32" t="s">
-        <v>235</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
   </sheetData>
